--- a/tournament_analysis_1110.xlsx
+++ b/tournament_analysis_1110.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patlkwok/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D94EE3-5BBA-AF49-95BB-CB4C11B229E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642DCEA3-F08F-904A-97E1-5CDD47A80831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{66164A7A-31BB-5A46-9125-E6FDC9D4BC89}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19320" xr2:uid="{66164A7A-31BB-5A46-9125-E6FDC9D4BC89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
@@ -318,9 +318,6 @@
     <t>0/2</t>
   </si>
   <si>
-    <t>1/1</t>
-  </si>
-  <si>
     <t>g2_tournament_5</t>
   </si>
   <si>
@@ -339,15 +336,9 @@
     <t>g6_tournament_5</t>
   </si>
   <si>
-    <t>1/2</t>
-  </si>
-  <si>
     <t>g7_tournament_5</t>
   </si>
   <si>
-    <t>0/1</t>
-  </si>
-  <si>
     <t>g8_tournament_5</t>
   </si>
   <si>
@@ -408,9 +399,6 @@
     <t>g2_tournament_15</t>
   </si>
   <si>
-    <t>2/2</t>
-  </si>
-  <si>
     <t>g3_tournament_15</t>
   </si>
   <si>
@@ -466,6 +454,21 @@
   </si>
   <si>
     <t>8-0-7</t>
+  </si>
+  <si>
+    <t>0/3</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>0/4</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,6 +563,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1692,13 +1698,13 @@
         <v>17</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>17</v>
@@ -1714,7 +1720,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
@@ -1732,13 +1738,13 @@
         <v>23</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>97</v>
+      <c r="I20" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>17</v>
@@ -1754,7 +1760,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>26</v>
@@ -1772,13 +1778,13 @@
         <v>16</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>97</v>
+      <c r="I21" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>17</v>
@@ -1794,7 +1800,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>30</v>
@@ -1812,13 +1818,13 @@
         <v>16</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>97</v>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>16</v>
@@ -1834,7 +1840,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>34</v>
@@ -1852,13 +1858,13 @@
         <v>17</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>97</v>
+      <c r="I23" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>17</v>
@@ -1874,7 +1880,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>38</v>
@@ -1892,13 +1898,13 @@
         <v>17</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>97</v>
+      <c r="I24" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>54</v>
@@ -1914,7 +1920,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>42</v>
@@ -1932,13 +1938,13 @@
         <v>16</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>97</v>
+      <c r="I25" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>16</v>
@@ -1954,7 +1960,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>46</v>
@@ -1971,14 +1977,14 @@
       <c r="F26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>95</v>
+      <c r="G26" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>97</v>
+      <c r="I26" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>47</v>
@@ -1994,7 +2000,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>51</v>
@@ -2012,13 +2018,13 @@
         <v>16</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>97</v>
+      <c r="I27" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>17</v>
@@ -2034,7 +2040,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>53</v>
@@ -2052,13 +2058,13 @@
         <v>16</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>97</v>
+      <c r="I28" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>16</v>
@@ -2074,7 +2080,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>58</v>
@@ -2091,14 +2097,14 @@
       <c r="F29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>95</v>
+      <c r="G29" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>97</v>
+      <c r="I29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>17</v>
@@ -2114,7 +2120,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>60</v>
@@ -2132,13 +2138,13 @@
         <v>16</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>97</v>
+      <c r="I30" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>17</v>
@@ -2154,7 +2160,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>64</v>
@@ -2172,13 +2178,13 @@
         <v>17</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>97</v>
+      <c r="I31" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>17</v>
@@ -2194,7 +2200,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>68</v>
@@ -2212,13 +2218,13 @@
         <v>17</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>17</v>
@@ -2234,7 +2240,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>72</v>
@@ -2252,13 +2258,13 @@
         <v>23</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>17</v>
@@ -2274,7 +2280,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2282,14 +2288,14 @@
         <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
@@ -2306,7 +2312,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2314,31 +2320,31 @@
         <v>5</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>90</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>15</v>
@@ -2353,16 +2359,16 @@
         <v>16</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>17</v>
@@ -2378,7 +2384,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>22</v>
@@ -2393,16 +2399,16 @@
         <v>16</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>17</v>
@@ -2418,7 +2424,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>26</v>
@@ -2433,16 +2439,16 @@
         <v>16</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>17</v>
@@ -2458,7 +2464,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>30</v>
@@ -2473,16 +2479,16 @@
         <v>16</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>16</v>
@@ -2498,7 +2504,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>34</v>
@@ -2513,16 +2519,16 @@
         <v>16</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>17</v>
@@ -2538,7 +2544,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>38</v>
@@ -2553,16 +2559,16 @@
         <v>17</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>16</v>
@@ -2578,7 +2584,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
@@ -2593,16 +2599,16 @@
         <v>16</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>16</v>
@@ -2618,7 +2624,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>46</v>
@@ -2633,16 +2639,16 @@
         <v>16</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>18</v>
@@ -2658,7 +2664,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>51</v>
@@ -2673,16 +2679,16 @@
         <v>16</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>17</v>
@@ -2698,7 +2704,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>53</v>
@@ -2713,16 +2719,16 @@
         <v>16</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>16</v>
@@ -2738,7 +2744,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>58</v>
@@ -2753,16 +2759,16 @@
         <v>16</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>17</v>
@@ -2778,7 +2784,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>60</v>
@@ -2793,16 +2799,16 @@
         <v>16</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>17</v>
@@ -2818,7 +2824,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>64</v>
@@ -2833,16 +2839,16 @@
         <v>17</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>17</v>
@@ -2858,7 +2864,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>68</v>
@@ -2873,22 +2879,22 @@
         <v>17</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="7" t="s">
-        <v>97</v>
+      <c r="K49" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>17</v>
@@ -2898,7 +2904,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>72</v>
@@ -2913,22 +2919,22 @@
         <v>17</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K50" s="7" t="s">
-        <v>97</v>
+      <c r="K50" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>17</v>
@@ -2938,7 +2944,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2946,18 +2952,20 @@
         <v>15</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K51" s="2"/>
+      <c r="K51" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="L51" s="2" t="s">
         <v>76</v>
       </c>
@@ -2966,7 +2974,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2974,20 +2982,22 @@
         <v>15</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K52" s="2"/>
+      <c r="K52" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="L52" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
